--- a/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
+++ b/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9138EE-AA55-4F4A-93C0-93FC54E2DC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48D133-A199-4D6F-A486-B425CEEEF8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="17" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="10" r:id="rId1"/>
@@ -32,11 +32,6 @@
     <sheet name="summaryCrs" sheetId="16" r:id="rId17"/>
     <sheet name="summaryComp" sheetId="14" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -12168,6 +12165,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -12269,6 +12284,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -12370,6 +12403,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -12471,6 +12522,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -12572,6 +12641,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -13516,6 +13603,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -13593,6 +13698,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -13670,6 +13793,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -13747,6 +13888,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -13824,6 +13983,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -13901,6 +14078,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -13980,6 +14175,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -14059,6 +14272,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -14138,6 +14369,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -14499,6 +14748,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryCrs!$B$1:$E$1,summaryCrs!$G$1)</c:f>
@@ -14576,6 +14843,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryCrs!$B$1:$E$1,summaryCrs!$G$1)</c:f>
@@ -14653,6 +14938,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryCrs!$B$1:$E$1,summaryCrs!$G$1)</c:f>
@@ -15014,6 +15317,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryCrs!$A$3:$A$5</c:f>
@@ -15079,6 +15400,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryCrs!$A$3:$A$5</c:f>
@@ -15144,6 +15483,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryCrs!$A$3:$A$5</c:f>
@@ -15209,6 +15566,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryCrs!$A$3:$A$5</c:f>
@@ -15274,6 +15649,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryCrs!$A$3:$A$5</c:f>
@@ -15623,6 +16016,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -15700,6 +16111,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -15777,6 +16206,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -16133,6 +16580,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -16198,6 +16663,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -16263,6 +16746,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -16328,6 +16829,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -16393,6 +16912,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -40228,487 +40765,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="tfDeepSeaChrome9"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>trainLoss</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>trainTpr</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>testLoss</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>testUncer</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>testTpr</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>testRoc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.20699999999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>0.06</v>
-          </cell>
-          <cell r="H2">
-            <v>0.19700000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>0.02</v>
-          </cell>
-          <cell r="K2">
-            <v>9.4E-2</v>
-          </cell>
-          <cell r="M2">
-            <v>0.66500000000000004</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.20200000000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>8.5000000000000006E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>0.2</v>
-          </cell>
-          <cell r="J3">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="K3">
-            <v>0.112</v>
-          </cell>
-          <cell r="M3">
-            <v>0.69499999999999995</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.19700000000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>9.6000000000000002E-2</v>
-          </cell>
-          <cell r="H4">
-            <v>0.19700000000000001</v>
-          </cell>
-          <cell r="J4">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="K4">
-            <v>0.13</v>
-          </cell>
-          <cell r="M4">
-            <v>0.69799999999999995</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.19900000000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>0.10299999999999999</v>
-          </cell>
-          <cell r="H5">
-            <v>0.2</v>
-          </cell>
-          <cell r="J5">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="K5">
-            <v>0.14099999999999999</v>
-          </cell>
-          <cell r="M5">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>0.107</v>
-          </cell>
-          <cell r="H6">
-            <v>0.19400000000000001</v>
-          </cell>
-          <cell r="J6">
-            <v>2.3E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>0.13100000000000001</v>
-          </cell>
-          <cell r="M6">
-            <v>0.70699999999999996</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.19700000000000001</v>
-          </cell>
-          <cell r="E7">
-            <v>0.107</v>
-          </cell>
-          <cell r="H7">
-            <v>0.19700000000000001</v>
-          </cell>
-          <cell r="J7">
-            <v>2.5999999999999999E-2</v>
-          </cell>
-          <cell r="K7">
-            <v>0.14099999999999999</v>
-          </cell>
-          <cell r="M7">
-            <v>0.70599999999999996</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="E8">
-            <v>0.107</v>
-          </cell>
-          <cell r="H8">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="J8">
-            <v>2.5999999999999999E-2</v>
-          </cell>
-          <cell r="K8">
-            <v>0.14199999999999999</v>
-          </cell>
-          <cell r="M8">
-            <v>0.70699999999999996</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="E9">
-            <v>0.112</v>
-          </cell>
-          <cell r="H9">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="J9">
-            <v>2.5999999999999999E-2</v>
-          </cell>
-          <cell r="K9">
-            <v>0.14199999999999999</v>
-          </cell>
-          <cell r="M9">
-            <v>0.70499999999999996</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="E10">
-            <v>0.109</v>
-          </cell>
-          <cell r="H10">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="J10">
-            <v>2.5999999999999999E-2</v>
-          </cell>
-          <cell r="K10">
-            <v>0.14099999999999999</v>
-          </cell>
-          <cell r="M10">
-            <v>0.70499999999999996</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="E11">
-            <v>0.106</v>
-          </cell>
-          <cell r="H11">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="J11">
-            <v>2.5999999999999999E-2</v>
-          </cell>
-          <cell r="K11">
-            <v>0.14199999999999999</v>
-          </cell>
-          <cell r="M11">
-            <v>0.70399999999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="tfDeepSeaChrome19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>trainLoss</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>trainTpr</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>testLoss</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>testUncer</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>testTpr</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>testRoc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.20599999999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>5.1999999999999998E-2</v>
-          </cell>
-          <cell r="H2">
-            <v>0.25800000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="K2">
-            <v>0.17499999999999999</v>
-          </cell>
-          <cell r="M2">
-            <v>0.72799999999999998</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.19950000000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>0.25600000000000001</v>
-          </cell>
-          <cell r="J3">
-            <v>0.04</v>
-          </cell>
-          <cell r="K3">
-            <v>0.22800000000000001</v>
-          </cell>
-          <cell r="M3">
-            <v>0.73199999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>9.6500000000000002E-2</v>
-          </cell>
-          <cell r="H4">
-            <v>0.23499999999999999</v>
-          </cell>
-          <cell r="J4">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="K4">
-            <v>0.20599999999999999</v>
-          </cell>
-          <cell r="M4">
-            <v>0.73699999999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.19500000000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>0.10100000000000001</v>
-          </cell>
-          <cell r="H5">
-            <v>0.23200000000000001</v>
-          </cell>
-          <cell r="J5">
-            <v>0.02</v>
-          </cell>
-          <cell r="K5">
-            <v>0.16400000000000001</v>
-          </cell>
-          <cell r="M5">
-            <v>0.74099999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.19500000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>0.106</v>
-          </cell>
-          <cell r="H6">
-            <v>0.23300000000000001</v>
-          </cell>
-          <cell r="J6">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>0.188</v>
-          </cell>
-          <cell r="M6">
-            <v>0.74099999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.193</v>
-          </cell>
-          <cell r="E7">
-            <v>0.105</v>
-          </cell>
-          <cell r="H7">
-            <v>0.23499999999999999</v>
-          </cell>
-          <cell r="J7">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="K7">
-            <v>0.20200000000000001</v>
-          </cell>
-          <cell r="M7">
-            <v>0.74199999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.193</v>
-          </cell>
-          <cell r="E8">
-            <v>0.10150000000000001</v>
-          </cell>
-          <cell r="H8">
-            <v>0.23300000000000001</v>
-          </cell>
-          <cell r="J8">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="K8">
-            <v>0.19500000000000001</v>
-          </cell>
-          <cell r="M8">
-            <v>0.74299999999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.19500000000000001</v>
-          </cell>
-          <cell r="E9">
-            <v>0.104</v>
-          </cell>
-          <cell r="H9">
-            <v>0.23499999999999999</v>
-          </cell>
-          <cell r="J9">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="K9">
-            <v>0.20300000000000001</v>
-          </cell>
-          <cell r="M9">
-            <v>0.74099999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.19650000000000001</v>
-          </cell>
-          <cell r="E10">
-            <v>0.10349999999999999</v>
-          </cell>
-          <cell r="H10">
-            <v>0.23599999999999999</v>
-          </cell>
-          <cell r="J10">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="K10">
-            <v>0.21199999999999999</v>
-          </cell>
-          <cell r="M10">
-            <v>0.73899999999999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.19550000000000001</v>
-          </cell>
-          <cell r="E11">
-            <v>0.1095</v>
-          </cell>
-          <cell r="H11">
-            <v>0.23499999999999999</v>
-          </cell>
-          <cell r="J11">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="K11">
-            <v>0.20699999999999999</v>
-          </cell>
-          <cell r="M11">
-            <v>0.73899999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="tf_expChrome9_Processed"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -41624,7 +41680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23158EB-2C69-43E0-BE0D-C5DA1F27E38D}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -43945,7 +44001,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44188,7 +44244,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44295,8 +44351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F81402-268B-4737-B9AF-52B8E062572B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
+++ b/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3C440-A4B4-41C9-AA70-B9E65008448C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D69F17-10DC-44C6-A66A-F6E290CBC9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="14" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="21" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="10" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="tfRnn_cr19" sheetId="22" r:id="rId18"/>
     <sheet name="summaryOpt" sheetId="1" r:id="rId19"/>
     <sheet name="summaryComp" sheetId="14" r:id="rId20"/>
+    <sheet name="ttest" sheetId="23" r:id="rId21"/>
+    <sheet name="anova" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="91">
   <si>
     <t>trainLoss</t>
   </si>
@@ -203,12 +205,135 @@
   <si>
     <t>Rnn_cr19</t>
   </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>exp3 vs deepsea t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>exp3 vs rnn t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>difference significant since: P two tail &lt; alpha (0.05)</t>
+  </si>
+  <si>
+    <t>difference not significant since: P two tail &gt;= alpha (0.05)</t>
+  </si>
+  <si>
+    <t>deepsea vs rnn t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>alpha = 0.05</t>
+  </si>
+  <si>
+    <t>alpha = 0.01</t>
+  </si>
+  <si>
+    <t>exp3 vs deepsea t-Test:  t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>difference not significant since: P two tail &gt;= alpha (0.01)</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>deepsea</t>
+  </si>
+  <si>
+    <t>rnn</t>
+  </si>
+  <si>
+    <t>F &gt; F crit =&gt; reject null hypothesis, at least one mean TPR is different</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +350,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,13 +389,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52916,8 +53090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E7ADB9-FFF1-4D5B-AB76-0CA28232A64B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55439,7 +55613,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55693,6 +55867,924 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F225A-A847-4466-9510-8DC3CA84CDDB}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.20333333333333334</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.14333333333333331</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.20333333333333334</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.14333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.5503333333333359E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.9703333333333396E-3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.5503333333333359E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.9703333333333396E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.43672446139793653</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.43672446139793653</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.21132486540518708</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.21132486540518708</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.9645567342832733</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.42264973081037416</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.42264973081037416</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.9248432009182928</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.20333333333333334</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.20333333333333334</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.5503333333333359E-3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.5503333333333359E-3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.9106418255526831</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5.9106418255526831</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.3725430988909444E-2</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.3725430988909444E-2</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6.9645567342832733</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.7450861977818888E-2</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2.7450861977818888E-2</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9.9248432009182928</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.14333333333333331</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.14333333333333331</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.9703333333333396E-3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3.9703333333333396E-3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3.9399829573198777</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3.9399829573198777</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2.9397374126331088E-2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2.9397374126331088E-2</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6.9645567342832733</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5.8794748252662177E-2</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5.8794748252662177E-2</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9.9248432009182928</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF0D83-F25F-4C08-8061-14A08E6E366C}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.20333333333333334</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.5503333333333359E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.14333333333333331</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.9703333333333396E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.5488888888888888E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.2744444444444444E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13.061785302721388</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.5160185938674363E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.1432528497847176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.5041333333333335E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.5068888888888892E-3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8.0530222222222225E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
+++ b/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D69F17-10DC-44C6-A66A-F6E290CBC9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5042D-9B71-44BA-9F47-A2A8C85BFC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="21" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="19" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="10" r:id="rId1"/>
@@ -18340,7 +18340,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -18367,7 +18367,7 @@
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>0.91900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.66100000000000003</c:v>
@@ -18435,7 +18435,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -18462,7 +18462,7 @@
                   <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.70399999999999996</c:v>
@@ -18530,7 +18530,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -18557,7 +18557,7 @@
                   <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.73899999999999999</c:v>
@@ -19025,7 +19025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19165,13 +19165,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>0.91900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19598,7 +19598,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -19625,7 +19625,7 @@
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.73899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.85499999999999998</c:v>
@@ -19693,7 +19693,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -19720,7 +19720,7 @@
                   <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.70399999999999996</c:v>
@@ -19788,7 +19788,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -19815,7 +19815,7 @@
                   <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.73899999999999999</c:v>
@@ -20847,7 +20847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20987,13 +20987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.73899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21425,7 +21425,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -21452,7 +21452,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.499</c:v>
@@ -21520,7 +21520,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -21547,7 +21547,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.46400000000000002</c:v>
@@ -21615,7 +21615,7 @@
                   <c:v>testAcc</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>testTpr</c:v>
@@ -21642,7 +21642,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.48499999999999999</c:v>
@@ -22115,7 +22115,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testUncer</c:v>
+                  <c:v>1-testUncer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22255,13 +22255,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -55612,8 +55612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F81402-268B-4737-B9AF-52B8E062572B}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55629,7 +55629,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -55660,7 +55660,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>0.26100000000000001</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="F5">
         <v>0.99099999999999999</v>
@@ -55683,7 +55683,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>0.14199999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F6">
         <v>0.99</v>
@@ -55706,7 +55706,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>0.20699999999999999</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F7">
         <v>0.99</v>
@@ -55734,7 +55734,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E17">
-        <v>8.1000000000000003E-2</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F17">
         <v>0.998</v>
@@ -55757,7 +55757,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>0.14199999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F18">
         <v>0.99</v>
@@ -55780,7 +55780,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E19">
-        <v>0.20699999999999999</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F19">
         <v>0.99</v>
@@ -55808,7 +55808,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -55831,7 +55831,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -55854,7 +55854,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -56595,7 +56595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF0D83-F25F-4C08-8061-14A08E6E366C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
+++ b/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5042D-9B71-44BA-9F47-A2A8C85BFC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E8515-68F4-4B27-9DDC-6E77EBA83265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="19" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
   </bookViews>
@@ -18364,7 +18364,7 @@
                   <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.99099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.91900000000000004</c:v>
@@ -18459,7 +18459,7 @@
                   <c:v>0.95499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.85799999999999998</c:v>
@@ -18554,7 +18554,7 @@
                   <c:v>0.94099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.79300000000000004</c:v>
@@ -19082,13 +19082,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.99099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19622,7 +19622,7 @@
                   <c:v>0.96499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.98499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73899999999999999</c:v>
@@ -19717,7 +19717,7 @@
                   <c:v>0.95499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.85799999999999998</c:v>
@@ -19812,7 +19812,7 @@
                   <c:v>0.94099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.79300000000000004</c:v>
@@ -20904,13 +20904,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.98499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -55613,7 +55613,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I5" sqref="I5:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55657,7 +55657,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="D5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="E5">
         <v>0.73899999999999999</v>
@@ -55680,7 +55680,7 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="D6">
-        <v>2.5999999999999999E-2</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E6">
         <v>0.85799999999999998</v>
@@ -55703,7 +55703,7 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="D7">
-        <v>2.9000000000000001E-2</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E7">
         <v>0.79300000000000004</v>
@@ -55731,7 +55731,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="D17">
-        <v>8.9999999999999993E-3</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E17">
         <v>0.91900000000000004</v>
@@ -55754,7 +55754,7 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="D18">
-        <v>2.5999999999999999E-2</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E18">
         <v>0.85799999999999998</v>
@@ -55777,7 +55777,7 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="D19">
-        <v>2.9000000000000001E-2</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E19">
         <v>0.79300000000000004</v>

--- a/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
+++ b/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E8515-68F4-4B27-9DDC-6E77EBA83265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48F3A2-FD4E-490C-B769-A77157595C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="19" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="21" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="10" r:id="rId1"/>
@@ -55612,7 +55612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F81402-268B-4737-B9AF-52B8E062572B}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5:I19"/>
     </sheetView>
   </sheetViews>
@@ -55874,7 +55874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F225A-A847-4466-9510-8DC3CA84CDDB}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -56595,8 +56595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF0D83-F25F-4C08-8061-14A08E6E366C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
+++ b/Architecture and parameter search/results/separate/tf/tfSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\tf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Research\deepbrain\git\deepBrain\Architecture and parameter search\results\separate\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48F3A2-FD4E-490C-B769-A77157595C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81584D98-D729-4C6E-97A2-2E8A272ABCA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="21" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{70AAAB36-7ED8-4106-9A4F-E38CF3BF8A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="10" r:id="rId1"/>
@@ -16291,24 +16291,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -16410,24 +16392,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -16529,24 +16493,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -16648,24 +16594,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -16767,24 +16695,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -17165,24 +17075,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17260,24 +17152,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17355,24 +17229,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17450,24 +17306,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17545,24 +17383,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17640,24 +17460,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17737,24 +17539,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17834,24 +17618,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17931,24 +17697,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -18310,24 +18058,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -18405,24 +18135,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -18500,24 +18212,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -18874,24 +18568,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$17:$A$19</c:f>
@@ -18957,24 +18633,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$17:$A$19</c:f>
@@ -19040,24 +18698,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$17:$A$19</c:f>
@@ -19123,24 +18763,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$17:$A$19</c:f>
@@ -19206,24 +18828,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$17:$A$19</c:f>
@@ -19568,24 +19172,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -19663,24 +19249,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -19758,24 +19326,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -20696,24 +20246,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -20779,24 +20311,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -20862,24 +20376,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -20945,24 +20441,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -21028,24 +20506,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$5:$A$7</c:f>
@@ -21395,24 +20855,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -21490,24 +20932,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -21585,24 +21009,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -21964,24 +21370,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -22047,24 +21435,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -22130,24 +21500,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -22213,24 +21565,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -22296,24 +21630,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -49370,15 +48686,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49406,14 +48722,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -54906,7 +54222,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55612,8 +54928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F81402-268B-4737-B9AF-52B8E062572B}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56595,8 +55911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF0D83-F25F-4C08-8061-14A08E6E366C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
